--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_STROMSUND/Översikt STRÖMSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45119</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>45127</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45128</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45130</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
